--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/QuitEmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/QuitEmp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B359C0A2-B73F-41C8-B37A-68DA223F3984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030BAAF6-CFB6-4EBE-8B36-A20C0DEB4F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,6 +222,9 @@
   <si>
     <t>QuitDate DESC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -470,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -510,9 +510,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,26 +545,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,26 +580,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,7 +759,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -813,10 +779,10 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -826,7 +792,7 @@
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>11</v>
@@ -841,7 +807,7 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>19</v>
@@ -891,7 +857,7 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="9"/>
@@ -937,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>3</v>
@@ -985,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -996,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>3</v>
@@ -1015,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -1032,10 +998,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>3</v>
